--- a/General.Mvc/wwwroot/Files/importfile/ARJ-BPR-8000-M21099.xlsx
+++ b/General.Mvc/wwwroot/Files/importfile/ARJ-BPR-8000-M21099.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>序号</t>
   </si>
@@ -196,6 +196,9 @@
     <t>ARJ-BPR-8000-M21099-2</t>
   </si>
   <si>
+    <t>2020.1.19</t>
+  </si>
+  <si>
     <t>215-234</t>
   </si>
 </sst>
@@ -211,7 +214,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,12 +237,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -750,175 +747,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -944,8 +941,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1313,7 +1310,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5:O6"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1451,8 +1448,8 @@
       <c r="N2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O2">
-        <v>20200119</v>
+      <c r="O2" s="7">
+        <v>43849</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>30</v>
@@ -1516,11 +1513,11 @@
       <c r="N3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="7">
-        <v>43849</v>
+      <c r="O3" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>31</v>
